--- a/data/output/set50/low_noisy/results/ssim.xlsx
+++ b/data/output/set50/low_noisy/results/ssim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA67CA-4DC7-49B1-9D31-88D0DCB80020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC063BD5-FE9D-43E2-90BB-BFDF38E25788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssim_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>ssim_bm3d</t>
+  </si>
+  <si>
+    <t>ssim_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.93520238</v>
+      </c>
+      <c r="B2">
         <v>0.954977297</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.96181926500000003</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.97329331399999996</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.93691637000000005</v>
+      </c>
+      <c r="B3">
         <v>0.95190338696270149</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.95963640963134478</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.9603628397284224</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.85380898000000005</v>
+      </c>
+      <c r="B4">
         <v>0.93232419124638177</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.94055694336907403</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.93791762593462458</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.88221572000000004</v>
+      </c>
+      <c r="B5">
         <v>0.94058307278492725</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.94551594690464924</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.94399417699788202</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.85981969000000003</v>
+      </c>
+      <c r="B6">
         <v>0.92880104438278355</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.93716194295279787</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.93919757227849499</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.89952825999999997</v>
+      </c>
+      <c r="B7">
         <v>0.93903367493567813</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.94735331726257788</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.94772133914343482</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.92060065999999996</v>
+      </c>
+      <c r="B8">
         <v>0.94862290058956211</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.94932974900719092</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.93909647827195142</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.89254692999999996</v>
+      </c>
+      <c r="B9">
         <v>0.94910263258299377</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.95244105243611277</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.90771916390434693</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.90341241999999999</v>
+      </c>
+      <c r="B10">
         <v>0.95850108297091485</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.95874121054500383</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.9645189919105579</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.92406719000000004</v>
+      </c>
+      <c r="B11">
         <v>0.9607767513137212</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.96235647594703755</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.95505530949946582</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.92551298999999998</v>
+      </c>
+      <c r="B12">
         <v>0.9439798123067088</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.94917896828831361</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.95875018981735782</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.90270899000000004</v>
+      </c>
+      <c r="B13">
         <v>0.94581286931352504</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.95287603765494444</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.92774566866124231</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.87213996000000005</v>
+      </c>
+      <c r="B14">
         <v>0.92928909848138208</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.93750976597188473</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.92568016302657752</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.92796265</v>
+      </c>
+      <c r="B15">
         <v>0.95396895099960743</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.95967320637197817</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.96803436518621633</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.93648297000000003</v>
+      </c>
+      <c r="B16">
         <v>0.96606687568527494</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.96678790393122438</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.92576274321240948</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.89547111000000001</v>
+      </c>
+      <c r="B17">
         <v>0.94422791273893303</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.94480492538616578</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.91056841384560783</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.90644738000000002</v>
+      </c>
+      <c r="B18">
         <v>0.96224246350296749</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.96279082435734564</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.73583734865388084</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.90016898000000001</v>
+      </c>
+      <c r="B19">
         <v>0.94839770921711997</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.95302986335679618</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.93857167577407885</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.90088725999999997</v>
+      </c>
+      <c r="B20">
         <v>0.95526558969022946</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.95633305826482939</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.88296851597715298</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.90465205999999998</v>
+      </c>
+      <c r="B21">
         <v>0.94958846423909071</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.95413078685344543</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.94549491870613722</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.90041682999999995</v>
+      </c>
+      <c r="B22">
         <v>0.94447006326689276</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.94603743897208059</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.92208945226195271</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.85309853999999996</v>
+      </c>
+      <c r="B23">
         <v>0.93981876436266087</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.9409110047306638</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.93337993579642731</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.87858888000000002</v>
+      </c>
+      <c r="B24">
         <v>0.93521848903221072</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.93051818071118442</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.89683973258813454</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.90856221000000004</v>
+      </c>
+      <c r="B25">
         <v>0.93938114755635782</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.94386062891590183</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.95127462983434596</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.86770709999999995</v>
+      </c>
+      <c r="B26">
         <v>0.93849177005562212</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.939792703562778</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.94137805212790893</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.88892360999999998</v>
+      </c>
+      <c r="B27">
         <v>0.93302874337118791</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.93648872551756313</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.94304378841858583</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.83904875999999995</v>
+      </c>
+      <c r="B28">
         <v>0.91972718508631646</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.93334428287369853</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.9359665052312871</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.91309035000000005</v>
+      </c>
+      <c r="B29">
         <v>0.9355924643314999</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.93637095869748299</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.94040159717672667</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.86627072000000005</v>
+      </c>
+      <c r="B30">
         <v>0.92867835429991785</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.9327857218861848</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.92189150661694796</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.90885209</v>
+      </c>
+      <c r="B31">
         <v>0.96175818652490741</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.96209156128002138</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.80270434533377721</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.83882851000000003</v>
+      </c>
+      <c r="B32">
         <v>0.93085454270775125</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.93592002358085735</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.90770645961199936</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.89761374000000005</v>
+      </c>
+      <c r="B33">
         <v>0.961825176037441</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.96152743494395809</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.79317654864011411</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.85586609000000002</v>
+      </c>
+      <c r="B34">
         <v>0.92804144487377616</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.93086505588834012</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.89543634201603328</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.82659254999999998</v>
+      </c>
+      <c r="B35">
         <v>0.92928293210194202</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.93707881889400846</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.91172523488419399</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.89191284000000004</v>
+      </c>
+      <c r="B36">
         <v>0.94724402577063027</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.95258682340505529</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.92399539732241309</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.88055123999999996</v>
+      </c>
+      <c r="B37">
         <v>0.93402599211206705</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.93809467236561572</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.9143975816090123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.90624934999999995</v>
+      </c>
+      <c r="B38">
         <v>0.95135465195926561</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.95366201656934591</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.94285411641485695</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.79560911999999995</v>
+      </c>
+      <c r="B39">
         <v>0.92726213800307222</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.93305578850407578</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.89624389772194279</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.89437677000000004</v>
+      </c>
+      <c r="B40">
         <v>0.93545253080955626</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.9420832825612887</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.94572428667300801</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.91013540000000004</v>
+      </c>
+      <c r="B41">
         <v>0.9445482577377583</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.94544231940698387</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.95389947054469615</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.83691934000000001</v>
+      </c>
+      <c r="B42">
         <v>0.91508995401326332</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.93183579756432977</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.94057070425967138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.88430900999999995</v>
+      </c>
+      <c r="B43">
         <v>0.93827441744594431</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.94681903206854767</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.94654256439059381</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.86311130999999996</v>
+      </c>
+      <c r="B44">
         <v>0.92569016275143956</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.93556611376096976</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.90213436284972603</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.93718212999999995</v>
+      </c>
+      <c r="B45">
         <v>0.95338435722039228</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.96417980251497715</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.97265974983112768</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.98508467</v>
+      </c>
+      <c r="B46">
         <v>0.99029903896590243</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.98722138071166732</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.78420506751735486</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.87466685</v>
+      </c>
+      <c r="B47">
         <v>0.93216773117591734</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.93638800140576195</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.90813828121453277</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.92263298000000005</v>
+      </c>
+      <c r="B48">
         <v>0.95808480654269368</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.96188933873269589</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.9511334826718012</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.90042977000000002</v>
+      </c>
+      <c r="B49">
         <v>0.95602307592943281</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.95896529617348902</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.9145066378929273</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.92280094999999995</v>
+      </c>
+      <c r="B50">
         <v>0.94873237701076496</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.95525126680582817</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.96093475361590064</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.95688088999999998</v>
+      </c>
+      <c r="B51">
         <v>0.97830944623994898</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.97960539588582629</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.98859696243910944</v>
       </c>
     </row>
